--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2177067.727144729</v>
+        <v>2292684.588881317</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12445555.52943491</v>
+        <v>12445534.67060185</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283164</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9511958.718372202</v>
+        <v>9511962.954024239</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.3828147651795</v>
+        <v>129.538278081653</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83532033605545</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3507887739396</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7938006179689</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2947308627104</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>2.09575741967523</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.3828147651795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>127.4695742187183</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>58.31091626443185</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0233325848003</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.4852405450068</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94290942807549</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.19058462642715</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.161321588189</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8434583985096</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -832,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>51.46668889313281</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.10853304825665</v>
+        <v>15.07219909888211</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>143.3487213288644</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -902,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G5" t="n">
-        <v>110.0965202167179</v>
+        <v>116.9725659584294</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -953,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -984,13 +986,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.1525249552777</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>178.6309134695373</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>33.71259485376299</v>
       </c>
     </row>
     <row r="7">
@@ -1057,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>39.83418474640043</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888211</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1114,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>104.3355752683728</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>108.8812954650524</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624053</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247013</v>
+        <v>65.76608425465031</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348406</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802337</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>72.85803388964565</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1218,19 +1220,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>155.8686312908717</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.8315678926962</v>
+        <v>92.83909691614505</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923704996</v>
+        <v>20.24979976115236</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838587</v>
+        <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8092543744329</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>8.22752866016582</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>28.86316999088458</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195734</v>
+        <v>101.5869591640953</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617374</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1424,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1534,16 +1536,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>18.70843787977265</v>
+        <v>130.4114987159128</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1576,10 +1578,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.0162797694411</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>151.5133592021556</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1938,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2008,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>71.76895293959859</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>90.14863908058098</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2175,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2239,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>23.41986852521076</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>3.458642397732228</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2482,7 +2484,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856555</v>
@@ -2533,16 +2535,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>183.6118834172028</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>211.8579886296205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2609,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881266</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>60.64713141731143</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>99.76859704213612</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2789,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.421048022931</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922686</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101215</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>15.93450140722535</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695511</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819371</v>
+        <v>115.2963218977555</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.421048022931</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922686</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856535</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
-        <v>172.0260335000821</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1376433238278</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695511</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.421048022931</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922686</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856535</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101215</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>74.99129529219145</v>
       </c>
       <c r="U37" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>177.1006680594907</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695511</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881266</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3566,10 +3568,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.421048022931</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922686</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>15.93450140722137</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101215</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>120.4424239494381</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620684</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695511</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986276</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.421048022931</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922686</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>5.890337106896945</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101215</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016276</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.1376433238278</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.709655389037</v>
+        <v>132.5039425933942</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3977,13 +3979,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4135,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>75.12653431054493</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>416.5947907116938</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="C2" t="n">
-        <v>416.5947907116938</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="D2" t="n">
-        <v>416.5947907116938</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="E2" t="n">
-        <v>416.5947907116938</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5515434741387</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="G2" t="n">
-        <v>137.586573437719</v>
+        <v>137.5684432757742</v>
       </c>
       <c r="H2" t="n">
-        <v>137.586573437719</v>
+        <v>137.5684432757742</v>
       </c>
       <c r="I2" t="n">
-        <v>21.07062518121436</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.15993901467277</v>
+        <v>49.28269087917624</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9970572935553</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L2" t="n">
-        <v>294.0714735959959</v>
+        <v>294.5174947515912</v>
       </c>
       <c r="M2" t="n">
-        <v>494.953000779596</v>
+        <v>495.5981834030611</v>
       </c>
       <c r="N2" t="n">
-        <v>703.6988094670305</v>
+        <v>704.5463761991323</v>
       </c>
       <c r="O2" t="n">
-        <v>887.4762960288921</v>
+        <v>888.5149683358418</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108064</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.531259060718</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.531259060718</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>899.1940867193355</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>684.7549646357895</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>684.7549646357895</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="V2" t="n">
-        <v>684.7549646357895</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="W2" t="n">
-        <v>682.6380379492489</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="X2" t="n">
-        <v>682.6380379492489</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="Y2" t="n">
-        <v>416.5947907116938</v>
+        <v>801.1705019471533</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>521.4822204112299</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C3" t="n">
-        <v>521.4822204112299</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D3" t="n">
-        <v>521.4822204112299</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>362.2447654057744</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>303.3448499871564</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>165.947544345944</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>65.45740238129062</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.07062518121436</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.07062518121436</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.65665001371015</v>
+        <v>192.1295835699347</v>
       </c>
       <c r="L3" t="n">
-        <v>242.2693060433165</v>
+        <v>338.8740072302313</v>
       </c>
       <c r="M3" t="n">
-        <v>432.7162285299024</v>
+        <v>529.4746963267551</v>
       </c>
       <c r="N3" t="n">
-        <v>642.6123592779512</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>812.4065171760969</v>
+        <v>909.4672107560897</v>
       </c>
       <c r="P3" t="n">
-        <v>929.3482319634649</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.531259060718</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.156931155236</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>886.5091315712068</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>689.697557431298</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>689.697557431298</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V3" t="n">
-        <v>689.697557431298</v>
+        <v>819.7034117742819</v>
       </c>
       <c r="W3" t="n">
-        <v>689.697557431298</v>
+        <v>565.4660550460803</v>
       </c>
       <c r="X3" t="n">
-        <v>689.697557431298</v>
+        <v>357.6145548405475</v>
       </c>
       <c r="Y3" t="n">
-        <v>689.697557431298</v>
+        <v>149.8542560755936</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.2679526023098</v>
+        <v>257.2442912997597</v>
       </c>
       <c r="C4" t="n">
-        <v>36.3317696744029</v>
+        <v>88.30810837185274</v>
       </c>
       <c r="D4" t="n">
-        <v>36.3317696744029</v>
+        <v>88.30810837185274</v>
       </c>
       <c r="E4" t="n">
-        <v>36.3317696744029</v>
+        <v>88.30810837185274</v>
       </c>
       <c r="F4" t="n">
-        <v>36.3317696744029</v>
+        <v>88.30810837185274</v>
       </c>
       <c r="G4" t="n">
-        <v>36.3317696744029</v>
+        <v>88.30810837185274</v>
       </c>
       <c r="H4" t="n">
-        <v>36.3317696744029</v>
+        <v>36.32155393434485</v>
       </c>
       <c r="I4" t="n">
-        <v>36.3317696744029</v>
+        <v>36.32155393434485</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07062518121436</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.3277805481196</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.5471352504846</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4958971570816</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>738.8633854210589</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>918.0791761376782</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.079201097369</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.531259060718</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1053.531259060718</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>1053.531259060718</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="T4" t="n">
-        <v>1053.531259060718</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="U4" t="n">
-        <v>1053.531259060718</v>
+        <v>659.6853352735295</v>
       </c>
       <c r="V4" t="n">
-        <v>798.8467708548313</v>
+        <v>659.6853352735295</v>
       </c>
       <c r="W4" t="n">
-        <v>654.0500826438572</v>
+        <v>659.6853352735295</v>
       </c>
       <c r="X4" t="n">
-        <v>426.0605317458399</v>
+        <v>659.6853352735295</v>
       </c>
       <c r="Y4" t="n">
-        <v>205.2679526023098</v>
+        <v>438.8927561299994</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>1054.855520006025</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1054.855520006025</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1054.855520006025</v>
+      </c>
+      <c r="E5" t="n">
+        <v>788.4778634388466</v>
+      </c>
+      <c r="F5" t="n">
         <v>522.1002068716687</v>
       </c>
-      <c r="C5" t="n">
-        <v>522.1002068716687</v>
-      </c>
-      <c r="D5" t="n">
-        <v>522.1002068716687</v>
-      </c>
-      <c r="E5" t="n">
-        <v>255.7225503044907</v>
-      </c>
-      <c r="F5" t="n">
-        <v>248.7770495552872</v>
-      </c>
       <c r="G5" t="n">
-        <v>137.5684432757741</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>137.5684432757742</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917624</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515912</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030611</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991323</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358418</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4601,16 +4603,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>788.4778634388467</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>788.4778634388467</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>788.4778634388467</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y5" t="n">
-        <v>522.1002068716687</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>121.5812722902314</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="C6" t="n">
-        <v>121.5812722902314</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="D6" t="n">
-        <v>121.5812722902314</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="E6" t="n">
-        <v>121.5812722902314</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004802</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699344</v>
+        <v>95.78113116957459</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302311</v>
+        <v>242.5255548298712</v>
       </c>
       <c r="M6" t="n">
-        <v>529.474696326755</v>
+        <v>433.126243926395</v>
       </c>
       <c r="N6" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110289999</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560898</v>
+        <v>813.1187583557296</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>930.176358389133</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>906.2192216098645</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T6" t="n">
-        <v>725.7839554790187</v>
+        <v>691.074259448092</v>
       </c>
       <c r="U6" t="n">
-        <v>497.6481095158322</v>
+        <v>691.074259448092</v>
       </c>
       <c r="V6" t="n">
-        <v>497.6481095158322</v>
+        <v>455.9221512163493</v>
       </c>
       <c r="W6" t="n">
-        <v>497.6481095158322</v>
+        <v>201.6847944881476</v>
       </c>
       <c r="X6" t="n">
-        <v>289.7966093102994</v>
+        <v>201.6847944881476</v>
       </c>
       <c r="Y6" t="n">
-        <v>289.7966093102994</v>
+        <v>167.6316683732355</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>516.4249761124506</v>
+        <v>190.2429270008669</v>
       </c>
       <c r="C7" t="n">
-        <v>516.4249761124506</v>
+        <v>190.2429270008669</v>
       </c>
       <c r="D7" t="n">
-        <v>476.1884258635613</v>
+        <v>190.2429270008669</v>
       </c>
       <c r="E7" t="n">
-        <v>328.2753322811682</v>
+        <v>190.2429270008669</v>
       </c>
       <c r="F7" t="n">
-        <v>328.2753322811682</v>
+        <v>190.2429270008669</v>
       </c>
       <c r="G7" t="n">
-        <v>159.7059716361716</v>
+        <v>190.2429270008669</v>
       </c>
       <c r="H7" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434485</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434485</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
         <v>316.7083726551009</v>
@@ -4747,28 +4749,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407077</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S7" t="n">
-        <v>926.0629918407077</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="T7" t="n">
-        <v>926.0629918407077</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="U7" t="n">
-        <v>926.0629918407077</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="V7" t="n">
-        <v>926.0629918407077</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="W7" t="n">
-        <v>926.0629918407077</v>
+        <v>820.6735218726541</v>
       </c>
       <c r="X7" t="n">
-        <v>698.0734409426904</v>
+        <v>592.6839709746367</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.0734409426904</v>
+        <v>371.8913918311066</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1323.273454230226</v>
+        <v>1975.636202072111</v>
       </c>
       <c r="C8" t="n">
-        <v>954.3109372898145</v>
+        <v>1606.673685131699</v>
       </c>
       <c r="D8" t="n">
-        <v>844.3298307594586</v>
+        <v>1248.407986524948</v>
       </c>
       <c r="E8" t="n">
-        <v>844.3298307594586</v>
+        <v>1248.407986524948</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102551</v>
+        <v>837.4220817353408</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345439</v>
+        <v>421.715859727008</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321143</v>
+        <v>117.6416433428661</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.21125520685569</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362826</v>
+        <v>187.3702251467175</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816104</v>
+        <v>442.1757437607425</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872951</v>
+        <v>795.1862829045931</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923567</v>
+        <v>1219.647962995227</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230824</v>
+        <v>1655.591685209585</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740837</v>
+        <v>2053.905718940597</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2359.356530550199</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2540.564622661165</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2560.562760342784</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2435.830015762137</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2435.830015762137</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.01262627016</v>
+        <v>2435.830015762137</v>
       </c>
       <c r="V8" t="n">
-        <v>2100.01262627016</v>
+        <v>2435.830015762137</v>
       </c>
       <c r="W8" t="n">
-        <v>2100.01262627016</v>
+        <v>2435.830015762137</v>
       </c>
       <c r="X8" t="n">
-        <v>2100.01262627016</v>
+        <v>2362.236042136232</v>
       </c>
       <c r="Y8" t="n">
-        <v>1709.873294294348</v>
+        <v>2362.236042136232</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>929.5097208010791</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>755.0566915199521</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>606.1222818587008</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792199487294</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446619756144</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057884</v>
+        <v>71.66559839993889</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.21125520685569</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500118</v>
+        <v>113.4887579637188</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310627</v>
+        <v>559.9063389572709</v>
       </c>
       <c r="L9" t="n">
-        <v>932.4978103101012</v>
+        <v>884.0056756665062</v>
       </c>
       <c r="M9" t="n">
-        <v>1295.759829269323</v>
+        <v>1247.072144140808</v>
       </c>
       <c r="N9" t="n">
-        <v>1683.044957866269</v>
+        <v>1634.156546613377</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736638</v>
+        <v>1966.043356600766</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568935</v>
+        <v>2213.078715030391</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2536.272628442627</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2560.562760342784</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2424.8262802517</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2230.816477685349</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2002.726321751578</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1767.574213519835</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1513.336856791634</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1305.485356586101</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1097.725057821147</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>229.1404018670065</v>
+        <v>51.21125520685569</v>
       </c>
       <c r="C10" t="n">
-        <v>229.1404018670065</v>
+        <v>51.21125520685569</v>
       </c>
       <c r="D10" t="n">
-        <v>229.1404018670065</v>
+        <v>51.21125520685569</v>
       </c>
       <c r="E10" t="n">
-        <v>229.1404018670065</v>
+        <v>51.21125520685569</v>
       </c>
       <c r="F10" t="n">
-        <v>229.1404018670065</v>
+        <v>51.21125520685569</v>
       </c>
       <c r="G10" t="n">
-        <v>229.1404018670065</v>
+        <v>51.21125520685569</v>
       </c>
       <c r="H10" t="n">
-        <v>80.40150373051279</v>
+        <v>51.21125520685569</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.21125520685569</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312227</v>
+        <v>76.63468308380155</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020483</v>
+        <v>248.2500215676569</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693248</v>
+        <v>523.3850043368922</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096608</v>
+        <v>823.8653899904037</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245826</v>
+        <v>1122.635640101613</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999038</v>
+        <v>1382.582027931091</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171028</v>
+        <v>1581.4903876165</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074502</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590084</v>
+        <v>1533.156055412621</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749945</v>
+        <v>1336.515802634455</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944681</v>
+        <v>1113.53450110886</v>
       </c>
       <c r="U10" t="n">
-        <v>1114.255484944681</v>
+        <v>824.4161276035018</v>
       </c>
       <c r="V10" t="n">
-        <v>859.5709967387937</v>
+        <v>569.7316393976149</v>
       </c>
       <c r="W10" t="n">
-        <v>859.5709967387937</v>
+        <v>280.3144693606543</v>
       </c>
       <c r="X10" t="n">
-        <v>631.5814458407764</v>
+        <v>280.3144693606543</v>
       </c>
       <c r="Y10" t="n">
-        <v>410.7888666972462</v>
+        <v>59.5218902171242</v>
       </c>
     </row>
     <row r="11">
@@ -5030,28 +5032,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,28 +5062,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5133,13 +5135,13 @@
         <v>1963.765362972544</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998286</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E13" t="n">
-        <v>194.8007783998286</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="F13" t="n">
-        <v>194.8007783998286</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5224,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="14">
@@ -5270,7 +5272,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5282,16 +5284,16 @@
         <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5303,19 +5305,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589157</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N15" t="n">
-        <v>1731.250242493492</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>662.1522880254209</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>493.2161050975141</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>343.0994656851783</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5467,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1824.417283336614</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1569.732795130727</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5507,28 +5509,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5540,25 +5542,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452619</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718135</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.4710609784063</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5701,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2106.003314093041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1113.119525808646</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="20">
@@ -5747,16 +5749,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5765,13 +5767,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5780,22 +5782,22 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5829,19 +5831,19 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756265</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>716.6687843969311</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969311</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O21" t="n">
         <v>1896.176478190825</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3194.624135499465</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C22" t="n">
-        <v>3025.687952571558</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="D22" t="n">
-        <v>2875.571313159222</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159222</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661312</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376192</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4437.439036126371</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4148.363809470569</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3893.679321264683</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3604.262151227722</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X22" t="n">
-        <v>3376.272600329705</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y22" t="n">
-        <v>3376.272600329705</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111714</v>
@@ -6002,37 +6004,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>810.0653816078141</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C25" t="n">
-        <v>641.1291986799072</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D25" t="n">
-        <v>491.0125592675715</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851784</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851784</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6181,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1502.919304948441</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.701365648819</v>
+        <v>1213.50213491148</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.711814750802</v>
+        <v>985.5125840134626</v>
       </c>
       <c r="Y25" t="n">
-        <v>991.7138464380538</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="26">
@@ -6209,64 +6211,64 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.235169913445</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K27" t="n">
-        <v>2381.235169913445</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L27" t="n">
-        <v>2876.560776129204</v>
+        <v>542.9134462654475</v>
       </c>
       <c r="M27" t="n">
-        <v>3406.350378974036</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N27" t="n">
-        <v>4033.948342528643</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>4033.948342528643</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>4457.571492023711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6376,19 +6378,19 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K28" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,19 +6408,19 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2385.703354875905</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2385.703354875905</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2166.101889898846</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1877.026663243044</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1622.342175037157</v>
       </c>
       <c r="W28" t="n">
         <v>1332.925005000197</v>
@@ -6446,22 +6448,22 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168608</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075805</v>
@@ -6479,22 +6481,22 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123001</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756265</v>
       </c>
       <c r="K30" t="n">
-        <v>577.388077746847</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L30" t="n">
-        <v>577.388077746847</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="M30" t="n">
-        <v>1174.766565373399</v>
+        <v>840.8417932021782</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446606</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>718.5507239167102</v>
+        <v>2757.723669558404</v>
       </c>
       <c r="C31" t="n">
-        <v>549.6145409888036</v>
+        <v>2588.787486630497</v>
       </c>
       <c r="D31" t="n">
-        <v>549.6145409888036</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888036</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908934</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057735</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797183</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797183</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038346</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797749</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580262</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487569</v>
+        <v>4440.932614305899</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.46108051051</v>
+        <v>4221.33114932884</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854708</v>
+        <v>3932.255922673038</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648822</v>
+        <v>3677.571434467151</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611861</v>
+        <v>3388.154264430191</v>
       </c>
       <c r="X31" t="n">
-        <v>916.294644713844</v>
+        <v>3160.164713532174</v>
       </c>
       <c r="Y31" t="n">
-        <v>900.1991887469497</v>
+        <v>2939.372134388644</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168595</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192586</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075805</v>
@@ -6716,34 +6718,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492574</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6767,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756265</v>
       </c>
       <c r="K33" t="n">
-        <v>577.388077746847</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589157</v>
+        <v>840.8417932021782</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263525</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356181</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232826</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408897</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429796</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578597</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.903366400058</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2273.199413378159</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>2273.199413378159</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U34" t="n">
-        <v>2273.199413378159</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172272</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135312</v>
+        <v>1581.823518162841</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237295</v>
+        <v>1353.833967264824</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093765</v>
+        <v>1133.041388121294</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6919,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797186</v>
@@ -6965,7 +6967,7 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
@@ -6974,10 +6976,10 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615996</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>2381.235169913445</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K36" t="n">
-        <v>2381.235169913445</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>2381.235169913445</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>2978.613657539997</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N36" t="n">
-        <v>3606.211621094603</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>4033.948342528643</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>4457.571492023711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263525</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356183</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232827</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408898</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429797</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578598</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487569</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487569</v>
+        <v>2188.359466111739</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831767</v>
+        <v>1899.284239455937</v>
       </c>
       <c r="V37" t="n">
-        <v>1729.097755135312</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135312</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237295</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093765</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="38">
@@ -7154,70 +7156,70 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I39" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2222.001901828444</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536369</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257303</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133947</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310019</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330917</v>
+        <v>418.8200494577841</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>251.623950172664</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>109.9121190148621</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854708</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1398.968683817748</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727406</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583876</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797186</v>
@@ -7439,22 +7441,22 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7491,25 +7493,25 @@
         <v>243.4633055756265</v>
       </c>
       <c r="K42" t="n">
-        <v>562.8579153358626</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1058.183521551621</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1655.562009178173</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N42" t="n">
-        <v>2283.159972732779</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3266.400361191283</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C43" t="n">
-        <v>3097.464178263376</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>2947.347538851041</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>2799.434445268648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>2652.544497770738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>2485.348398485618</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>2343.636567327816</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.932614305917</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>4440.932614305917</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>4440.932614305917</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>4186.24812610003</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W43" t="n">
-        <v>3896.83095606307</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X43" t="n">
-        <v>3668.841405165052</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y43" t="n">
-        <v>3448.048826021522</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="44">
@@ -7625,10 +7627,10 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
@@ -7658,16 +7660,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7734,19 +7736,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>696.7084350851671</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>546.5917956728314</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>398.6787020904383</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>251.7887545925279</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>251.7887545925279</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797186</v>
@@ -7831,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.59164343877319</v>
+        <v>60.51967546761156</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.109135423079664</v>
+        <v>2.051220519418294</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>97.32166909127284</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>96.89877181692185</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8152,7 +8154,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>134.1688236634844</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761156</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069063</v>
+        <v>2.051220519418294</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8313,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127285</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,10 +8534,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>342.9044714621875</v>
+        <v>29.86197300581199</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>162.0073097921266</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23422,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>146.8157004124962</v>
+        <v>35.112639576356</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>134.6711151870886</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23896,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>73.65209508333265</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23941,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>127.2568112467073</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>125.1956044930016</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24178,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>213.946807929556</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24421,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>68.52575990662524</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.726664722474339</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>5.728115292810273</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>186.7544012944549</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24689,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182122</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="E31" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856535</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>202.6501519448692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>64.53565828418181</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101215</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>9.000252501562244</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272881</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.184474389244</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272881</v>
+        <v>142.4141550350968</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>75.03697526433706</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5229983365908</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856535</v>
+        <v>65.33133491134419</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238278</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>105.2672314395988</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>75.3754992116684</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272881</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.184474389244</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>93.20571279564297</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>65.16817853567896</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>836238.9765646734</v>
+        <v>836251.6638149645</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>836251.6638149644</v>
+        <v>836251.6638149645</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>841512.0940213132</v>
+        <v>841502.9527726419</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>817515.6470952157</v>
+        <v>817515.6470952156</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>817515.6470952157</v>
+        <v>817515.6470952156</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>817515.6470952156</v>
+        <v>817515.6470952157</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>817515.6470952159</v>
+        <v>817515.6470952157</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>817515.6470952159</v>
+        <v>817515.6470952156</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>817515.6470952157</v>
+        <v>817515.6470952156</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>817515.6470952162</v>
+        <v>817515.6470952157</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>817515.6470952157</v>
+        <v>817515.6470952156</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982119</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="F2" t="n">
         <v>605359.9497675045</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="H2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="J2" t="n">
         <v>605359.9497675042</v>
@@ -26344,16 +26346,16 @@
         <v>605359.9497675042</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="O2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675045</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.4124909283</v>
+        <v>680087.9805911928</v>
       </c>
       <c r="C3" t="n">
-        <v>366.470368095198</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059454</v>
+        <v>390680.0076580794</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245438</v>
+        <v>507909.2320606929</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.53318642062</v>
+        <v>68999.15441911401</v>
       </c>
       <c r="K3" t="n">
-        <v>85.20559774300884</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756965</v>
+        <v>95270.23779101772</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132717.975695469</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>251328.6410967693</v>
+        <v>251227.3656190198</v>
       </c>
       <c r="C4" t="n">
         <v>251227.3656190198</v>
       </c>
       <c r="D4" t="n">
-        <v>140338.6838374604</v>
+        <v>140465.2517501116</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
+        <v>11167.03225179357</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11167.03225179358</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11167.03225179361</v>
+      </c>
+      <c r="K4" t="n">
         <v>11167.03225179351</v>
       </c>
-      <c r="I4" t="n">
-        <v>11167.03225179356</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11167.03225179355</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11167.0322517937</v>
-      </c>
       <c r="L4" t="n">
-        <v>11167.0322517937</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.0322517937</v>
+        <v>11167.03225179357</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179371</v>
+        <v>11167.03225179361</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179383</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179357</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.46164557681</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984476</v>
+        <v>92902.86757567899</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-378271.1878350619</v>
+        <v>-378581.8220162665</v>
       </c>
       <c r="C6" t="n">
-        <v>301139.6882068311</v>
+        <v>301506.1585749261</v>
       </c>
       <c r="D6" t="n">
-        <v>-8623.492685037985</v>
+        <v>-8266.799585658082</v>
       </c>
       <c r="E6" t="n">
-        <v>-14415.05393274018</v>
+        <v>-14838.84436888919</v>
       </c>
       <c r="F6" t="n">
-        <v>493070.387691804</v>
+        <v>493070.3876918038</v>
       </c>
       <c r="G6" t="n">
-        <v>493070.3876918036</v>
+        <v>493070.3876918039</v>
       </c>
       <c r="H6" t="n">
         <v>493070.3876918037</v>
       </c>
       <c r="I6" t="n">
+        <v>493070.3876918041</v>
+      </c>
+      <c r="J6" t="n">
+        <v>424071.2332726895</v>
+      </c>
+      <c r="K6" t="n">
+        <v>493070.3876918036</v>
+      </c>
+      <c r="L6" t="n">
+        <v>397800.1499007859</v>
+      </c>
+      <c r="M6" t="n">
+        <v>360352.4119963348</v>
+      </c>
+      <c r="N6" t="n">
+        <v>493070.3876918039</v>
+      </c>
+      <c r="O6" t="n">
         <v>493070.3876918037</v>
       </c>
-      <c r="J6" t="n">
-        <v>424157.8545053829</v>
-      </c>
-      <c r="K6" t="n">
-        <v>492985.1820940605</v>
-      </c>
-      <c r="L6" t="n">
-        <v>397687.7415542338</v>
-      </c>
-      <c r="M6" t="n">
-        <v>360463.0939628767</v>
-      </c>
-      <c r="N6" t="n">
-        <v>493070.3876918035</v>
-      </c>
-      <c r="O6" t="n">
-        <v>493070.3876918035</v>
-      </c>
       <c r="P6" t="n">
-        <v>493070.3876918036</v>
+        <v>493070.3876918039</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960505</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175416</v>
+        <v>933.7024595627831</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651795</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.1406900856961</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960505</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2849904734279107</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480632</v>
+        <v>319.647445793305</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241321</v>
+        <v>434.2730407788906</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651795</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3310652363266274</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.4268100841899</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.5675980139523</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651795</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363264001</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985324</v>
+        <v>376.4268100841899</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.5675980139523</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651795</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363266274</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.4268100841899</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.5675980139523</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.4932309765319</v>
+        <v>277.3377676600584</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H2" t="n">
-        <v>314.2053659305182</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1482595335101</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>347.1452112977378</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.855123890874</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>39.06360943114899</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,19 +27466,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>86.75829612895203</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.1525249552777</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8545278323952</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27549,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8841809557937</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3867285273816</v>
+        <v>100.915470442724</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1660284180233</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5277104718865</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7281204196193</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2165417078037</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586585345273</v>
+        <v>22.54475050117135</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>143.1742770077266</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27625,13 +27627,13 @@
         <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G5" t="n">
-        <v>302.7376544289921</v>
+        <v>295.8616086872806</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27673,7 +27675,7 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862871</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27704,16 +27706,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>16.21007411533947</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>171.9701009235414</v>
       </c>
     </row>
     <row r="7">
@@ -27777,22 +27779,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>108.7812882718119</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27834,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>182.1874230682182</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>245.8017461556306</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987942</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>296.8730667888234</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27938,7 +27940,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1.776449164529225</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>171.6044515217715</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28023,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>75.93342521301585</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,16 +28067,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28798,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29053,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29329,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29983,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30277,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30703,7 +30705,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467417179079598</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26943618524894</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1251007964663</v>
+        <v>95.16927002350879</v>
       </c>
       <c r="J2" t="n">
-        <v>209.4189488029072</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8647179933466</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>389.376936487604</v>
+        <v>389.5577350167917</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2568667460608</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2674158061207</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.732036231648</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P2" t="n">
-        <v>354.8176746231203</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4532968973321</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9938943753589</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.22626896827639</v>
+        <v>56.25237638702306</v>
       </c>
       <c r="T2" t="n">
-        <v>10.80111870142095</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973933743263678</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320184578410373</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75020369148965</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.45372342333959</v>
+        <v>45.47482884990947</v>
       </c>
       <c r="J3" t="n">
-        <v>124.728491243587</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.180857997082</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6479717289715</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>334.5046626963475</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3580057682311</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O3" t="n">
-        <v>314.1054948466118</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0973516439948</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5204033774364</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621598</v>
+        <v>82.00530919736543</v>
       </c>
       <c r="S3" t="n">
-        <v>24.52184951564879</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T3" t="n">
-        <v>5.321270296311983</v>
+        <v>5.323741109944813</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08685424857962983</v>
+        <v>0.0868945774202092</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106798402665009</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H4" t="n">
-        <v>9.840443980057996</v>
+        <v>9.845013171582787</v>
       </c>
       <c r="I4" t="n">
-        <v>33.284446509235</v>
+        <v>33.29990140244974</v>
       </c>
       <c r="J4" t="n">
-        <v>78.25064706841613</v>
+        <v>78.28698101779067</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5898507823528</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5507370653051</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4956805195704</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3703410187283</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4409233148688</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8622359005025</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770362</v>
+        <v>92.7223070791912</v>
       </c>
       <c r="R4" t="n">
-        <v>49.76568090528303</v>
+        <v>49.78878849350554</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28847761735292</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.729047720477764</v>
+        <v>4.73124354871565</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354601</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.16927002350879</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167917</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R5" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702306</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990947</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N6" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736543</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944813</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.0868945774202092</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,22 +31436,22 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582787</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244974</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779067</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M7" t="n">
         <v>173.576239384051</v>
@@ -31458,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.7223070791912</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350554</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.73124354871565</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181069</v>
+        <v>3.753577726885557</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336188</v>
+        <v>38.44132789546673</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979358</v>
+        <v>144.7098053157556</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491908</v>
+        <v>318.5802175972534</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857155</v>
+        <v>477.4691627763191</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767395</v>
+        <v>592.3427171354931</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730021</v>
+        <v>659.0954050359941</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342241</v>
+        <v>669.7602577525078</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166611</v>
+        <v>632.4356192307895</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190659</v>
+        <v>539.7691690983022</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147062</v>
+        <v>405.344166754213</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235318</v>
+        <v>235.7856768864751</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745119</v>
+        <v>85.53465245140472</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389764</v>
+        <v>16.43128649944154</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744855</v>
+        <v>0.3002862181508446</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347165</v>
+        <v>2.00834113943693</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380026</v>
+        <v>19.3963473203514</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436511</v>
+        <v>69.14683309026272</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575846</v>
+        <v>189.7441951079426</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178446</v>
+        <v>324.3030514502169</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177255</v>
+        <v>436.0654741571282</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040601</v>
+        <v>508.8678404617168</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762085</v>
+        <v>522.3360580152215</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405686</v>
+        <v>477.8354464519085</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378635</v>
+        <v>383.505072494759</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168767</v>
+        <v>256.3629847463702</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624144</v>
+        <v>124.6933209204789</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997911</v>
+        <v>37.304055813664</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000194</v>
+        <v>8.095024154133938</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675767</v>
+        <v>0.1321277065419033</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654583</v>
+        <v>1.683725746752559</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231076</v>
+        <v>14.96985254840004</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335784</v>
+        <v>50.63422518415881</v>
       </c>
       <c r="J10" t="n">
-        <v>119.085617475379</v>
+        <v>119.039410295406</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682324</v>
+        <v>195.6183185772519</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227914</v>
+        <v>250.3240987490124</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849634</v>
+        <v>263.9316641023125</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067965</v>
+        <v>257.6559590462351</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154679</v>
+        <v>237.9869810046255</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169142</v>
+        <v>203.6389757708731</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097488</v>
+        <v>140.9890713939803</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759605</v>
+        <v>75.70643221307417</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523486</v>
+        <v>29.34274778658778</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19689343106958</v>
+        <v>7.194100917942753</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529025009</v>
+        <v>0.09183958618650336</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31853,16 +31855,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>272.9327299394441</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32077,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>305.187676947251</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>193.1175412796314</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,25 +32314,25 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963288</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,25 +32551,25 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>616.5397119226061</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32576,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32783,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420754</v>
@@ -32795,19 +32797,19 @@
         <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>338.1920576279227</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33029,19 +33031,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473071</v>
+        <v>441.029269365552</v>
       </c>
       <c r="M27" t="n">
-        <v>677.2750468965967</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33263,7 +33265,7 @@
         <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
@@ -33272,19 +33274,19 @@
         <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>730.4561889249565</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437242</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>213.1625787491751</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742437</v>
@@ -33500,19 +33502,19 @@
         <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>322.6999460717718</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>574.6535388222624</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214697</v>
@@ -33521,7 +33523,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742437</v>
@@ -33737,19 +33739,19 @@
         <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O36" t="n">
-        <v>574.6535388222619</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214697</v>
@@ -33758,7 +33760,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742437</v>
@@ -33968,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420754</v>
@@ -33980,19 +33982,19 @@
         <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>366.8427442359106</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437242</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>431.3680753731359</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.689256441856</v>
@@ -34211,28 +34213,28 @@
         <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>460.4622569139914</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742437</v>
@@ -34378,7 +34380,7 @@
         <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159432</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460026</v>
@@ -34454,22 +34456,22 @@
         <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>405.6377363145776</v>
+        <v>750.6021172789111</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742437</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622092</v>
+        <v>28.47028331217703</v>
       </c>
       <c r="K2" t="n">
-        <v>93.77486694836608</v>
+        <v>93.92060305664461</v>
       </c>
       <c r="L2" t="n">
-        <v>153.6105215176167</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>202.910633518788</v>
+        <v>203.1118067186564</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8543522095298</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.6338248099612</v>
+        <v>185.8268607441511</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5846788678508</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.14760702288262</v>
+        <v>44.27132869117352</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.33941902272301</v>
+        <v>172.7600739089033</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0935919490973</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3706287743291</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N3" t="n">
-        <v>212.0162936848978</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O3" t="n">
-        <v>171.5092504021674</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P3" t="n">
-        <v>118.1229442296645</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.4374011083367</v>
+        <v>28.61687799649636</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.32035895647</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1407623256212</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.079557481411</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5025133979568</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0260512289084</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>130.3030555148393</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.517230266009236</v>
+        <v>6.560263827496811</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217703</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664461</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186564</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441511</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117352</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.3216690912724</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763041</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877692</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35109,10 +35111,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496811</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225045</v>
+        <v>137.5343130705671</v>
       </c>
       <c r="K8" t="n">
-        <v>257.564649540735</v>
+        <v>257.3793117313386</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067523</v>
+        <v>356.5763021655059</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457294</v>
+        <v>428.7491718087214</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376332</v>
+        <v>440.3471941559168</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949743</v>
+        <v>402.3374078091027</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637963</v>
+        <v>308.5361733430327</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402567</v>
+        <v>183.0384768797635</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939967</v>
+        <v>20.20013907234298</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091791</v>
+        <v>62.90656844127591</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434856</v>
+        <v>450.9268494884365</v>
       </c>
       <c r="L9" t="n">
-        <v>640.5848321000389</v>
+        <v>327.373067383066</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820418</v>
+        <v>366.7338065396984</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928752</v>
+        <v>390.9943459318882</v>
       </c>
       <c r="O9" t="n">
-        <v>497.4319917882509</v>
+        <v>335.239202007464</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235333</v>
+        <v>249.5306650804288</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308552</v>
+        <v>326.4584983961978</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977125</v>
+        <v>24.53548676783576</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870624</v>
+        <v>25.68023017873318</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423496</v>
+        <v>173.348826751369</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831075</v>
+        <v>277.9141240093285</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468039</v>
+        <v>303.5155410641531</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860251</v>
+        <v>301.7881314254637</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295076</v>
+        <v>262.5721089186652</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818077</v>
+        <v>200.9175350357666</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8817554580544</v>
+        <v>54.82702814228587</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35501,16 +35503,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>130.3364854949997</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>167.346237972892</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>61.77582919629807</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164546</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>477.9853321427319</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754087</v>
@@ -36443,19 +36445,19 @@
         <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>196.0580237059044</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
         <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36601,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902957</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36677,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674329</v>
+        <v>302.4748895856778</v>
       </c>
       <c r="M27" t="n">
-        <v>535.1410129745784</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
         <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36911,7 +36913,7 @@
         <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36920,19 +36922,19 @@
         <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>599.1144768416232</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992797</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>73.18080466315352</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295353</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066251</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37087,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37148,19 +37150,19 @@
         <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>191.3582339884385</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>432.0572943778179</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071394</v>
@@ -37169,7 +37171,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295353</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066251</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,19 +37387,19 @@
         <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O36" t="n">
-        <v>432.0572943778175</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071394</v>
@@ -37406,7 +37408,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295353</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066251</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902957</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754087</v>
@@ -37628,19 +37630,19 @@
         <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>235.5010321525773</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992797</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>297.3936679588056</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789208</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295353</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066251</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37859,28 +37861,28 @@
         <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>322.6208179396324</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
         <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38026,7 +38028,7 @@
         <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193524</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
         <v>696.4886512243158</v>
@@ -38038,7 +38040,7 @@
         <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38104,22 @@
         <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>274.2960242312443</v>
+        <v>619.2604051955778</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2292684.588881317</v>
+        <v>2288380.249071448</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9511962.954024239</v>
+        <v>9511962.954024237</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>219.4450108596164</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F2" t="n">
-        <v>129.538278081653</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015061</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.4695742187183</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -797,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>173.4063010743179</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -819,10 +819,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>147.1568932629477</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>51.46668889313281</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888211</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -904,61 +904,61 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>12.83417464571001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>152.7676931992223</v>
+      </c>
+      <c r="T5" t="n">
+        <v>212.2897156032232</v>
+      </c>
+      <c r="U5" t="n">
+        <v>251.1481678782825</v>
+      </c>
+      <c r="V5" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="F5" t="n">
-        <v>263.7138800015061</v>
-      </c>
-      <c r="G5" t="n">
-        <v>116.9725659584294</v>
-      </c>
-      <c r="H5" t="n">
-        <v>263.7138800015061</v>
-      </c>
-      <c r="I5" t="n">
-        <v>115.3066195468971</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>123.7911484401894</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>127.4695742187183</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.1525249552777</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>33.71259485376299</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888211</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>104.3355752683728</v>
+        <v>169.4615091892179</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5491597882495</v>
+        <v>280.1403523426065</v>
       </c>
       <c r="H8" t="n">
         <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465031</v>
+        <v>65.76608425465011</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348406</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>72.85803388964565</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>155.8686312908717</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614505</v>
+        <v>92.83909691614502</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115236</v>
+        <v>20.24979976115226</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092543744329</v>
+        <v>224.0328052099092</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.22752866016582</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>50.34571932180338</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640953</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>65.67353929277157</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>130.4114987159128</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>57.24347904696321</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>151.5133592021556</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576146</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>71.76895293959859</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>23.41986852521076</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>183.6118834172028</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881266</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>72.26558381699924</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>60.64713141731143</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>115.2963218977555</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3438,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>74.99129529219145</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881266</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>15.93450140722137</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695562</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>132.5039425933942</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3985,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588581</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>534.7928453799753</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="C2" t="n">
-        <v>534.7928453799753</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="D2" t="n">
-        <v>534.7928453799753</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="E2" t="n">
-        <v>534.7928453799753</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="F2" t="n">
-        <v>403.9460998429521</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757742</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757742</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515912</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030611</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991323</v>
+        <v>704.5463761991315</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358418</v>
+        <v>888.5149683358411</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4363,19 +4363,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>801.1705019471533</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>801.1705019471533</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>801.1705019471533</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X2" t="n">
-        <v>801.1705019471533</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y2" t="n">
-        <v>801.1705019471533</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.09711040012049</v>
+        <v>503.7220043479542</v>
       </c>
       <c r="C3" t="n">
-        <v>21.09711040012049</v>
+        <v>329.2689750668272</v>
       </c>
       <c r="D3" t="n">
-        <v>21.09711040012049</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E3" t="n">
         <v>21.09711040012049</v>
@@ -4409,22 +4409,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004801</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699347</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302313</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267551</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560897</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4445,16 +4445,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V3" t="n">
-        <v>819.7034117742819</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W3" t="n">
-        <v>565.4660550460803</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X3" t="n">
-        <v>357.6145548405475</v>
+        <v>879.6976401329762</v>
       </c>
       <c r="Y3" t="n">
-        <v>149.8542560755936</v>
+        <v>671.9373413680223</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>257.2442912997597</v>
+        <v>169.7404369283505</v>
       </c>
       <c r="C4" t="n">
-        <v>88.30810837185274</v>
+        <v>169.7404369283505</v>
       </c>
       <c r="D4" t="n">
-        <v>88.30810837185274</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E4" t="n">
-        <v>88.30810837185274</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>88.30810837185274</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>88.30810837185274</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434485</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434485</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
@@ -4503,7 +4503,7 @@
         <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4512,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>659.6853352735295</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>659.6853352735295</v>
+        <v>800.1710318001377</v>
       </c>
       <c r="W4" t="n">
-        <v>659.6853352735295</v>
+        <v>800.1710318001377</v>
       </c>
       <c r="X4" t="n">
-        <v>659.6853352735295</v>
+        <v>572.1814809021204</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.8927561299994</v>
+        <v>351.3889017585902</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1054.855520006025</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="C5" t="n">
-        <v>1054.855520006025</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="D5" t="n">
-        <v>1054.855520006025</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E5" t="n">
-        <v>788.4778634388466</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>522.1002068716687</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>403.9460998429521</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757742</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052547</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515912</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030611</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991323</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358418</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>432.4256445709457</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>166.0479880037678</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="Y5" t="n">
-        <v>1054.855520006025</v>
+        <v>41.00642392276842</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>167.6316683732355</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C6" t="n">
-        <v>167.6316683732355</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>167.6316683732355</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
         <v>21.09711040012049</v>
@@ -4649,49 +4649,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957459</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298712</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>433.126243926395</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110289999</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557296</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>930.176358389133</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>887.8833378166544</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>691.074259448092</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>691.074259448092</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V6" t="n">
-        <v>455.9221512163493</v>
+        <v>819.7034117742819</v>
       </c>
       <c r="W6" t="n">
-        <v>201.6847944881476</v>
+        <v>565.4660550460803</v>
       </c>
       <c r="X6" t="n">
-        <v>201.6847944881476</v>
+        <v>357.6145548405475</v>
       </c>
       <c r="Y6" t="n">
-        <v>167.6316683732355</v>
+        <v>149.8542560755936</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.2429270008669</v>
+        <v>481.2412344269841</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2429270008669</v>
+        <v>481.2412344269841</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2429270008669</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2429270008669</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2429270008669</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2429270008669</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434485</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434485</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
@@ -4734,13 +4734,13 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4749,28 +4749,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>820.6735218726541</v>
+        <v>883.6822784007539</v>
       </c>
       <c r="X7" t="n">
-        <v>592.6839709746367</v>
+        <v>883.6822784007539</v>
       </c>
       <c r="Y7" t="n">
-        <v>371.8913918311066</v>
+        <v>662.8896992572238</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1975.636202072111</v>
+        <v>1842.900032935097</v>
       </c>
       <c r="C8" t="n">
-        <v>1606.673685131699</v>
+        <v>1473.937515994686</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.407986524948</v>
+        <v>1115.671817387935</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.407986524948</v>
+        <v>1115.671817387935</v>
       </c>
       <c r="F8" t="n">
-        <v>837.4220817353408</v>
+        <v>704.6859125983276</v>
       </c>
       <c r="G8" t="n">
-        <v>421.715859727008</v>
+        <v>421.7158597270079</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428661</v>
+        <v>117.641643342866</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685569</v>
+        <v>51.2112552068558</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467175</v>
+        <v>187.3702251467177</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607425</v>
+        <v>442.1757437607435</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045931</v>
+        <v>795.1862829045945</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995227</v>
+        <v>1219.647962995229</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209585</v>
+        <v>1655.591685209588</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940597</v>
+        <v>2053.9057189406</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550199</v>
+        <v>2359.356530550203</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661165</v>
+        <v>2540.56462266117</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342784</v>
+        <v>2560.56276034279</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762137</v>
+        <v>2560.56276034279</v>
       </c>
       <c r="T8" t="n">
-        <v>2435.830015762137</v>
+        <v>2560.56276034279</v>
       </c>
       <c r="U8" t="n">
-        <v>2435.830015762137</v>
+        <v>2560.56276034279</v>
       </c>
       <c r="V8" t="n">
-        <v>2435.830015762137</v>
+        <v>2229.499872999219</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.830015762137</v>
+        <v>2229.499872999219</v>
       </c>
       <c r="X8" t="n">
-        <v>2362.236042136232</v>
+        <v>2229.499872999219</v>
       </c>
       <c r="Y8" t="n">
-        <v>2362.236042136232</v>
+        <v>2229.499872999219</v>
       </c>
     </row>
     <row r="9">
@@ -4859,13 +4859,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010791</v>
+        <v>931.3041138965631</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199521</v>
+        <v>756.8510846154361</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818587008</v>
+        <v>607.9166749541848</v>
       </c>
       <c r="E9" t="n">
         <v>448.6792199487294</v>
@@ -4880,55 +4880,55 @@
         <v>71.66559839993889</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685569</v>
+        <v>51.2112552068558</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637188</v>
+        <v>113.4887579637192</v>
       </c>
       <c r="K9" t="n">
-        <v>559.9063389572709</v>
+        <v>559.9063389572717</v>
       </c>
       <c r="L9" t="n">
-        <v>884.0056756665062</v>
+        <v>854.4423223907537</v>
       </c>
       <c r="M9" t="n">
-        <v>1247.072144140808</v>
+        <v>1217.508790865056</v>
       </c>
       <c r="N9" t="n">
-        <v>1634.156546613377</v>
+        <v>1604.593193337626</v>
       </c>
       <c r="O9" t="n">
-        <v>1966.043356600766</v>
+        <v>1936.480003325016</v>
       </c>
       <c r="P9" t="n">
-        <v>2213.078715030391</v>
+        <v>2445.345361789044</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442627</v>
+        <v>2560.56276034279</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342784</v>
+        <v>2560.56276034279</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.8262802517</v>
+        <v>2424.826280251705</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685349</v>
+        <v>2230.816477685354</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751578</v>
+        <v>2004.520714847062</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519835</v>
+        <v>1769.368606615319</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791634</v>
+        <v>1515.131249887118</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586101</v>
+        <v>1307.279749681585</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821147</v>
+        <v>1099.519450916631</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.21125520685569</v>
+        <v>715.9213805686175</v>
       </c>
       <c r="C10" t="n">
-        <v>51.21125520685569</v>
+        <v>546.9851976407106</v>
       </c>
       <c r="D10" t="n">
-        <v>51.21125520685569</v>
+        <v>396.8685582283748</v>
       </c>
       <c r="E10" t="n">
-        <v>51.21125520685569</v>
+        <v>248.9554646459817</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685569</v>
+        <v>102.0655171480713</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685569</v>
+        <v>102.0655171480713</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685569</v>
+        <v>51.2112552068558</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685569</v>
+        <v>51.2112552068558</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380155</v>
+        <v>76.6346830838018</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676569</v>
+        <v>248.2500215676574</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368922</v>
+        <v>523.385004336893</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904037</v>
+        <v>823.8653899904049</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101613</v>
+        <v>1122.635640101614</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931091</v>
+        <v>1382.582027931093</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.4903876165</v>
+        <v>1581.490387616502</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477363</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.156055412621</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="S10" t="n">
-        <v>1336.515802634455</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="T10" t="n">
-        <v>1113.53450110886</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="U10" t="n">
-        <v>824.4161276035018</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="V10" t="n">
-        <v>569.7316393976149</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="W10" t="n">
-        <v>280.3144693606543</v>
+        <v>1346.351975440405</v>
       </c>
       <c r="X10" t="n">
-        <v>280.3144693606543</v>
+        <v>1118.362424542387</v>
       </c>
       <c r="Y10" t="n">
-        <v>59.5218902171242</v>
+        <v>897.5698453988572</v>
       </c>
     </row>
     <row r="11">
@@ -5032,28 +5032,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5068,22 +5068,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>916.3099000622261</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>747.3737171343192</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>597.2570777219835</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>449.3439841395904</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>449.3439841395904</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5196,16 +5196,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>2090.842153176861</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V13" t="n">
-        <v>1836.157664970974</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W13" t="n">
-        <v>1546.740494934013</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>1318.750944035996</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y13" t="n">
-        <v>1097.958364892466</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="14">
@@ -5272,7 +5272,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5284,19 +5284,19 @@
         <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5305,7 +5305,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>409.1360811687896</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>904.4616873845483</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2389.141387573227</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2169.539922596168</v>
       </c>
       <c r="U16" t="n">
-        <v>1824.417283336614</v>
+        <v>1880.464695940366</v>
       </c>
       <c r="V16" t="n">
-        <v>1569.732795130727</v>
+        <v>1625.780207734479</v>
       </c>
       <c r="W16" t="n">
-        <v>1280.315625093766</v>
+        <v>1336.363037697518</v>
       </c>
       <c r="X16" t="n">
-        <v>1280.315625093766</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="17">
@@ -5509,7 +5509,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5521,43 +5521,43 @@
         <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734.6461798836013</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C19" t="n">
-        <v>565.7099969556945</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D19" t="n">
-        <v>415.5933575433587</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>415.5933575433587</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5715,10 +5715,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138411</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="20">
@@ -5746,7 +5746,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192599</v>
@@ -5761,10 +5761,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,31 +5773,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>803.2707707770319</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5949,13 +5949,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6016,25 +6016,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143764</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6183,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1502.919304948441</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1213.50213491148</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>985.5125840134626</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,58 +6217,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>542.9134462654475</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>702.4944101284095</v>
+        <v>1089.57599612053</v>
       </c>
       <c r="C28" t="n">
-        <v>533.5582272005026</v>
+        <v>920.6398131926233</v>
       </c>
       <c r="D28" t="n">
-        <v>383.4415877881669</v>
+        <v>770.5231737802875</v>
       </c>
       <c r="E28" t="n">
-        <v>235.5284942057738</v>
+        <v>622.6100801978944</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>475.720132699984</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>308.5240334148639</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797183</v>
+        <v>166.812202257062</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2385.703354875905</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2385.703354875905</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2166.101889898846</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U28" t="n">
-        <v>1877.026663243044</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="V28" t="n">
-        <v>1622.342175037157</v>
+        <v>2009.423761029278</v>
       </c>
       <c r="W28" t="n">
-        <v>1332.925005000197</v>
+        <v>1720.006590992317</v>
       </c>
       <c r="X28" t="n">
-        <v>1104.935454102179</v>
+        <v>1492.0170400943</v>
       </c>
       <c r="Y28" t="n">
-        <v>884.1428749586493</v>
+        <v>1271.22446095077</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6457,31 +6457,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6490,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756265</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021782</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2757.723669558404</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>2588.787486630497</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>2479.398563024106</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>2479.398563024106</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>2479.398563024106</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>2479.398563024106</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.33114932884</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673038</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467151</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430191</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3160.164713532174</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>2939.372134388644</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6694,7 +6694,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6706,16 +6706,16 @@
         <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6727,7 +6727,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756265</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021782</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1871.240688199802</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1581.823518162841</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1353.833967264824</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1133.041388121294</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6931,7 +6931,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -6943,16 +6943,16 @@
         <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6964,25 +6964,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>724.7519863413023</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C37" t="n">
-        <v>555.8158034133954</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7122,25 +7122,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2188.359466111739</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1899.284239455937</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1644.59975125005</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1355.182581213089</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>1127.193030315072</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y37" t="n">
-        <v>906.400451171542</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="38">
@@ -7165,58 +7165,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.388077746847</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589157</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2222.001901828444</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>734.6461798836013</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>565.7099969556945</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>565.7099969556945</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>565.7099969556945</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>418.8200494577841</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>251.623950172664</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>109.9121190148621</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138411</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7396,40 +7396,40 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7438,10 +7438,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466572</v>
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>929.7309773356195</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V43" t="n">
-        <v>1755.431557602304</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W43" t="n">
-        <v>1466.014387565343</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X43" t="n">
-        <v>1332.172021309389</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y43" t="n">
-        <v>1111.379442165859</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
@@ -7642,58 +7642,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7721,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589157</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2283.159972732779</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761156</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418294</v>
+        <v>99.37288961069065</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127284</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446524</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761156</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418294</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127285</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>29.86197300581199</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>264.4747475094983</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.98618304348489</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>114.1584408891657</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,10 +23427,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>35.112639576356</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>123.7828069546814</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>134.6711151870886</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>61.40075786968296</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>73.65209508333265</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>125.1956044930016</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>68.52575990662524</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>9.000252501566294</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>5.728115292810273</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24691,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>40.32043864788525</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>64.53565828418181</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>142.4141550350968</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>65.33133491134419</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>93.20571279564297</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>836251.6638149645</v>
+        <v>836251.6638149644</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>836251.6638149645</v>
+        <v>836251.6638149644</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>817515.6470952156</v>
+        <v>817515.6470952157</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>817515.6470952156</v>
+        <v>817515.6470952157</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>817515.6470952157</v>
+        <v>817515.6470952156</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>817515.6470952157</v>
+        <v>817515.6470952156</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>817515.6470952157</v>
+        <v>817515.6470952156</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>817515.6470952157</v>
+        <v>817515.6470952156</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>817515.6470952156</v>
+        <v>817515.6470952157</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>817515.6470952156</v>
+        <v>817515.6470952157</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>615781.3273982124</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982119</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="F2" t="n">
         <v>605359.9497675045</v>
       </c>
       <c r="G2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="H2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="I2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="J2" t="n">
         <v>605359.9497675046</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="L2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="M2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="N2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="O2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="P2" t="n">
         <v>605359.9497675044</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.9497675046</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="K2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="L2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.9497675046</v>
-      </c>
-      <c r="O2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="P2" t="n">
-        <v>605359.9497675045</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911928</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580794</v>
+        <v>390680.0076580808</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606929</v>
+        <v>507909.2320606913</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911401</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101772</v>
+        <v>95270.23779101807</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.975695469</v>
+        <v>132717.9756954685</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>251227.3656190198</v>
       </c>
       <c r="D4" t="n">
-        <v>140465.2517501116</v>
+        <v>140465.2517501112</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
@@ -26435,13 +26435,13 @@
         <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179357</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179358</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179361</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
         <v>11167.03225179351</v>
@@ -26450,16 +26450,16 @@
         <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179357</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179361</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
+        <v>11167.03225179347</v>
+      </c>
+      <c r="P4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="P4" t="n">
-        <v>11167.03225179357</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567899</v>
+        <v>92902.86757567911</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-378581.8220162665</v>
+        <v>-378581.8220162667</v>
       </c>
       <c r="C6" t="n">
-        <v>301506.1585749261</v>
+        <v>301506.1585749263</v>
       </c>
       <c r="D6" t="n">
-        <v>-8266.799585658082</v>
+        <v>-8266.799585658548</v>
       </c>
       <c r="E6" t="n">
-        <v>-14838.84436888919</v>
+        <v>-15186.22362324436</v>
       </c>
       <c r="F6" t="n">
-        <v>493070.3876918038</v>
+        <v>492723.0084374469</v>
       </c>
       <c r="G6" t="n">
-        <v>493070.3876918039</v>
+        <v>492723.0084374466</v>
       </c>
       <c r="H6" t="n">
-        <v>493070.3876918037</v>
+        <v>492723.0084374464</v>
       </c>
       <c r="I6" t="n">
-        <v>493070.3876918041</v>
+        <v>492723.0084374465</v>
       </c>
       <c r="J6" t="n">
-        <v>424071.2332726895</v>
+        <v>423723.8540183328</v>
       </c>
       <c r="K6" t="n">
-        <v>493070.3876918036</v>
+        <v>492723.0084374465</v>
       </c>
       <c r="L6" t="n">
-        <v>397800.1499007859</v>
+        <v>397452.7706464284</v>
       </c>
       <c r="M6" t="n">
-        <v>360352.4119963348</v>
+        <v>360005.0327419784</v>
       </c>
       <c r="N6" t="n">
-        <v>493070.3876918039</v>
+        <v>492723.0084374464</v>
       </c>
       <c r="O6" t="n">
-        <v>493070.3876918037</v>
+        <v>492723.0084374465</v>
       </c>
       <c r="P6" t="n">
-        <v>493070.3876918039</v>
+        <v>492723.0084374467</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627831</v>
+        <v>933.7024595627844</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856961</v>
+        <v>640.1406900856974</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.647445793305</v>
+        <v>319.6474457933061</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788906</v>
+        <v>434.2730407788891</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841899</v>
+        <v>376.4268100841913</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139523</v>
+        <v>532.5675980139507</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015059</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841899</v>
+        <v>376.4268100841913</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139523</v>
+        <v>532.5675980139506</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841899</v>
+        <v>376.4268100841913</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139523</v>
+        <v>532.5675980139507</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>135.2380307610665</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
-        <v>277.3377676600584</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442039</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27457,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39.06360943114899</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27478,7 +27478,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150561</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.1525249552777</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27517,13 +27517,13 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>32.36668412915958</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27539,10 +27539,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>1.458579755264623</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27554,13 +27554,13 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>100.915470442724</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248086</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
@@ -27593,16 +27593,16 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117135</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>295.8616086872806</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>50.47975262776185</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>225.4498202772236</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>39.06360943114899</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27706,7 +27706,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -27715,7 +27715,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150561</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
@@ -27760,10 +27760,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>171.9701009235414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27779,22 +27779,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248086</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>182.1874230682182</v>
+        <v>117.0614891473731</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>131.4088074456429</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348405</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>251.0453666896856</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>296.8730667888234</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27940,7 +27940,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1.776449164529225</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27988,7 +27988,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.776449164523711</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>171.6044515217715</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>96.91160063723612</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>104.8162497430994</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640952</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503844</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30279,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-9.094947017729281e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30705,7 +30705,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -31047,16 +31047,16 @@
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350879</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
         <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167917</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
         <v>433.4580399459292</v>
@@ -31065,25 +31065,25 @@
         <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658378</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702306</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990947</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
         <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
         <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736543</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944813</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0868945774202092</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,22 +31199,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582787</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244974</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779067</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
         <v>173.576239384051</v>
@@ -31226,19 +31226,19 @@
         <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.7223070791912</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350554</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.73124354871565</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
         <v>0.06039885381339136</v>
@@ -31284,16 +31284,16 @@
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350879</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
         <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167917</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
         <v>433.4580399459292</v>
@@ -31302,25 +31302,25 @@
         <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658378</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702306</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990947</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
         <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
         <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736543</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944813</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0868945774202092</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,22 +31436,22 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582787</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244974</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779067</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
         <v>173.576239384051</v>
@@ -31463,19 +31463,19 @@
         <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.7223070791912</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350554</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.73124354871565</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
         <v>0.06039885381339136</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885557</v>
+        <v>3.753577726885562</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546673</v>
+        <v>38.44132789546678</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157556</v>
+        <v>144.7098053157558</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972534</v>
+        <v>318.5802175972538</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763191</v>
+        <v>477.4691627763198</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354931</v>
+        <v>592.3427171354939</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359941</v>
+        <v>659.095405035995</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525078</v>
+        <v>669.7602577525087</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307895</v>
+        <v>632.4356192307903</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983022</v>
+        <v>539.7691690983029</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.344166754213</v>
+        <v>405.3441667542136</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864751</v>
+        <v>235.7856768864754</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140472</v>
+        <v>85.53465245140484</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944154</v>
+        <v>16.43128649944156</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508446</v>
+        <v>0.3002862181508449</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00834113943693</v>
+        <v>2.008341139436932</v>
       </c>
       <c r="H9" t="n">
-        <v>19.3963473203514</v>
+        <v>19.39634732035143</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026272</v>
+        <v>69.14683309026282</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079426</v>
+        <v>189.7441951079429</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502169</v>
+        <v>324.3030514502173</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571282</v>
+        <v>436.0654741571287</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617168</v>
+        <v>508.8678404617174</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152215</v>
+        <v>522.3360580152222</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519085</v>
+        <v>477.8354464519091</v>
       </c>
       <c r="P9" t="n">
-        <v>383.505072494759</v>
+        <v>383.5050724947595</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463702</v>
+        <v>256.3629847463706</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204789</v>
+        <v>124.6933209204791</v>
       </c>
       <c r="S9" t="n">
-        <v>37.304055813664</v>
+        <v>37.30405581366405</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133938</v>
+        <v>8.095024154133949</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419033</v>
+        <v>0.1321277065419035</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752559</v>
+        <v>1.683725746752562</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840004</v>
+        <v>14.96985254840006</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415881</v>
+        <v>50.63422518415887</v>
       </c>
       <c r="J10" t="n">
-        <v>119.039410295406</v>
+        <v>119.0394102954061</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772519</v>
+        <v>195.6183185772522</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490124</v>
+        <v>250.3240987490127</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023125</v>
+        <v>263.9316641023129</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462351</v>
+        <v>257.6559590462354</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046255</v>
+        <v>237.9869810046258</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708731</v>
+        <v>203.6389757708734</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939803</v>
+        <v>140.9890713939804</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307417</v>
+        <v>75.70643221307427</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658778</v>
+        <v>29.34274778658782</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942753</v>
+        <v>7.194100917942762</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650336</v>
+        <v>0.09183958618650348</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,25 +31840,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200311</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,25 +32077,25 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>305.187676947251</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,25 +32311,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32563,16 +32563,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>370.9642309107746</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32700,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32739,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,25 +32785,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565771</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,10 +32815,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32864,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,40 +33022,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>441.029269365552</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33213,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,40 +33259,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>213.1625787491751</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33450,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,40 +33496,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>574.6535388222624</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,40 +33733,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,40 +33970,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>431.3680753731359</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34161,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,40 +34207,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34398,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,40 +34444,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>750.6021172789111</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217703</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664461</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
         <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186564</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
         <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441511</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
         <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117352</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089033</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649636</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966405</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
@@ -34874,10 +34874,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496811</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217703</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664461</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
         <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186564</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
         <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441511</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
         <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117352</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763041</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.2400000337409</v>
+        <v>215.5616691250133</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877692</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35111,10 +35111,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496811</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705671</v>
+        <v>137.5343130705675</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313386</v>
+        <v>257.3793117313392</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655059</v>
+        <v>356.5763021655067</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087214</v>
+        <v>428.7491718087223</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559168</v>
+        <v>440.3471941559177</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091027</v>
+        <v>402.3374078091035</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430327</v>
+        <v>308.5361733430333</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797635</v>
+        <v>183.0384768797641</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234298</v>
+        <v>20.20013907234329</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127591</v>
+        <v>62.90656844127616</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884365</v>
+        <v>450.9268494884369</v>
       </c>
       <c r="L9" t="n">
-        <v>327.373067383066</v>
+        <v>297.5110943772546</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396984</v>
+        <v>366.7338065396991</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318882</v>
+        <v>390.9943459318889</v>
       </c>
       <c r="O9" t="n">
-        <v>335.239202007464</v>
+        <v>335.2392020074647</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804288</v>
+        <v>514.0054125899276</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.4584983961978</v>
+        <v>116.381210660349</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783576</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873318</v>
+        <v>25.68023017873334</v>
       </c>
       <c r="K10" t="n">
-        <v>173.348826751369</v>
+        <v>173.3488267513693</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093285</v>
+        <v>277.9141240093289</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641531</v>
+        <v>303.5155410641535</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254637</v>
+        <v>301.788131425464</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186652</v>
+        <v>262.5721089186655</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357666</v>
+        <v>200.9175350357669</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228587</v>
+        <v>54.82702814228604</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366978</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>167.346237972892</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36211,16 +36211,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>228.3679864663302</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121327</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36524,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>302.4748895856778</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>73.18080466315352</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>432.0572943778179</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>297.3936679588056</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>619.2604051955778</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2288380.249071448</v>
+        <v>2290140.779374233</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -664,10 +664,10 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D2" t="n">
-        <v>219.4450108596164</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015061</v>
+        <v>219.4450108596165</v>
       </c>
       <c r="F2" t="n">
         <v>263.7138800015061</v>
@@ -749,7 +749,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>28.33708868093411</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>173.4063010743179</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -822,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>147.1568932629477</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>17.65004124955344</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127.4695742187183</v>
+        <v>109.3170492634406</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>280.1403523426065</v>
+        <v>11.54915978824948</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>72.26503406783704</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465011</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348404</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896856</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614502</v>
+        <v>92.839096916145</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115226</v>
+        <v>20.24979976115216</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>134.3791152901737</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0697045406877</v>
+        <v>192.0697045406876</v>
       </c>
       <c r="U9" t="n">
-        <v>224.0328052099092</v>
+        <v>224.032805209916</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>50.34571932180338</v>
+        <v>50.34571932180595</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,10 +1429,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>65.67353929277157</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>40.62253010341785</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S16" t="n">
-        <v>57.24347904696321</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>87.21471514852939</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2086,10 +2086,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2320,22 +2320,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187864</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>63.38272884731432</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I28" t="n">
-        <v>72.26558381699924</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695709</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174114</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>212.5602966632231</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.733841663479</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>78.91051008678056</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>55.52079624060383</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695562</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>214.0647808588581</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4312,7 +4312,7 @@
         <v>788.4778634388466</v>
       </c>
       <c r="D2" t="n">
-        <v>566.8162363079209</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="E2" t="n">
         <v>300.4385797407429</v>
@@ -4330,22 +4330,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K2" t="n">
         <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030602</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991315</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358411</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>503.7220043479542</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C3" t="n">
-        <v>329.2689750668272</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D3" t="n">
-        <v>180.334565405576</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E3" t="n">
-        <v>21.09711040012049</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F3" t="n">
         <v>21.09711040012049</v>
@@ -4409,25 +4409,25 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004801</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>694.2029851278862</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>864.141532454616</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>981.1991324880196</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4436,25 +4436,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006025</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="V3" t="n">
-        <v>1054.855520006025</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="W3" t="n">
-        <v>1054.855520006025</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="X3" t="n">
-        <v>879.6976401329762</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y3" t="n">
-        <v>671.9373413680223</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169.7404369283505</v>
+        <v>652.4144760322547</v>
       </c>
       <c r="C4" t="n">
-        <v>169.7404369283505</v>
+        <v>652.4144760322547</v>
       </c>
       <c r="D4" t="n">
-        <v>21.09711040012049</v>
+        <v>502.2978366199189</v>
       </c>
       <c r="E4" t="n">
-        <v>21.09711040012049</v>
+        <v>354.3847430375258</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012049</v>
+        <v>207.4947955396155</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012049</v>
+        <v>38.92543489461892</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>38.92543489461892</v>
       </c>
       <c r="I4" t="n">
         <v>21.09711040012049</v>
@@ -4491,16 +4491,16 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
         <v>918.4699372075542</v>
@@ -4524,16 +4524,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>800.1710318001377</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W4" t="n">
-        <v>800.1710318001377</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X4" t="n">
-        <v>572.1814809021204</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y4" t="n">
-        <v>351.3889017585902</v>
+        <v>834.0629408624944</v>
       </c>
     </row>
     <row r="5">
@@ -4664,34 +4664,34 @@
         <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>819.7034117742819</v>
+        <v>801.367527981072</v>
       </c>
       <c r="W6" t="n">
-        <v>565.4660550460803</v>
+        <v>547.1301712528705</v>
       </c>
       <c r="X6" t="n">
-        <v>357.6145548405475</v>
+        <v>339.2786710473376</v>
       </c>
       <c r="Y6" t="n">
-        <v>149.8542560755936</v>
+        <v>131.5183722823837</v>
       </c>
     </row>
     <row r="7">
@@ -4737,10 +4737,10 @@
         <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1842.900032935097</v>
+        <v>1255.834025976301</v>
       </c>
       <c r="C8" t="n">
-        <v>1473.937515994686</v>
+        <v>886.8715090358889</v>
       </c>
       <c r="D8" t="n">
-        <v>1115.671817387935</v>
+        <v>528.6058104291385</v>
       </c>
       <c r="E8" t="n">
-        <v>1115.671817387935</v>
+        <v>142.8175578308943</v>
       </c>
       <c r="F8" t="n">
-        <v>704.6859125983276</v>
+        <v>135.8720570816908</v>
       </c>
       <c r="G8" t="n">
-        <v>421.7158597270079</v>
+        <v>124.206239113762</v>
       </c>
       <c r="H8" t="n">
-        <v>117.641643342866</v>
+        <v>51.21125520685593</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2112552068558</v>
+        <v>51.21125520685593</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467177</v>
+        <v>187.3702251467183</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607435</v>
+        <v>442.1757437607448</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045945</v>
+        <v>795.1862829045967</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995229</v>
+        <v>1219.647962995233</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209588</v>
+        <v>1655.591685209592</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.9057189406</v>
+        <v>2053.905718940606</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550203</v>
+        <v>2359.356530550209</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.56462266117</v>
+        <v>2540.564622661176</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.56276034279</v>
+        <v>2560.562760342797</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.56276034279</v>
+        <v>2435.83001576215</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.56276034279</v>
+        <v>2227.077931858423</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.56276034279</v>
+        <v>1973.496753383993</v>
       </c>
       <c r="V8" t="n">
-        <v>2229.499872999219</v>
+        <v>1642.433866040422</v>
       </c>
       <c r="W8" t="n">
-        <v>2229.499872999219</v>
+        <v>1642.433866040422</v>
       </c>
       <c r="X8" t="n">
-        <v>2229.499872999219</v>
+        <v>1642.433866040422</v>
       </c>
       <c r="Y8" t="n">
-        <v>2229.499872999219</v>
+        <v>1642.433866040422</v>
       </c>
     </row>
     <row r="9">
@@ -4877,43 +4877,43 @@
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993889</v>
+        <v>71.66559839993892</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2112552068558</v>
+        <v>51.21125520685593</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637192</v>
+        <v>113.4887579637196</v>
       </c>
       <c r="K9" t="n">
-        <v>559.9063389572717</v>
+        <v>298.0857543148198</v>
       </c>
       <c r="L9" t="n">
-        <v>854.4423223907537</v>
+        <v>814.4198492277092</v>
       </c>
       <c r="M9" t="n">
-        <v>1217.508790865056</v>
+        <v>1177.486317702012</v>
       </c>
       <c r="N9" t="n">
-        <v>1604.593193337626</v>
+        <v>1564.570720174583</v>
       </c>
       <c r="O9" t="n">
-        <v>1936.480003325016</v>
+        <v>2198.310003359425</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789044</v>
+        <v>2445.34536178905</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.56276034279</v>
+        <v>2560.562760342797</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.56276034279</v>
+        <v>2560.562760342797</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251705</v>
+        <v>2424.826280251712</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685354</v>
+        <v>2230.816477685361</v>
       </c>
       <c r="U9" t="n">
         <v>2004.520714847062</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>715.9213805686175</v>
+        <v>715.9213805686202</v>
       </c>
       <c r="C10" t="n">
-        <v>546.9851976407106</v>
+        <v>546.9851976407133</v>
       </c>
       <c r="D10" t="n">
-        <v>396.8685582283748</v>
+        <v>396.8685582283775</v>
       </c>
       <c r="E10" t="n">
-        <v>248.9554646459817</v>
+        <v>248.9554646459844</v>
       </c>
       <c r="F10" t="n">
-        <v>102.0655171480713</v>
+        <v>102.0655171480741</v>
       </c>
       <c r="G10" t="n">
-        <v>102.0655171480713</v>
+        <v>102.0655171480741</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2112552068558</v>
+        <v>51.21125520685593</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2112552068558</v>
+        <v>51.21125520685593</v>
       </c>
       <c r="J10" t="n">
-        <v>76.6346830838018</v>
+        <v>76.6346830838021</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676574</v>
+        <v>248.250021567658</v>
       </c>
       <c r="L10" t="n">
-        <v>523.385004336893</v>
+        <v>523.385004336894</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904049</v>
+        <v>823.8653899904064</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101614</v>
+        <v>1122.635640101616</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931093</v>
+        <v>1382.582027931095</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616502</v>
+        <v>1581.490387616505</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477365</v>
+        <v>1635.769145477368</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477365</v>
+        <v>1635.769145477368</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477365</v>
+        <v>1635.769145477368</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477365</v>
+        <v>1635.769145477368</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477365</v>
+        <v>1635.769145477368</v>
       </c>
       <c r="V10" t="n">
-        <v>1635.769145477365</v>
+        <v>1635.769145477368</v>
       </c>
       <c r="W10" t="n">
-        <v>1346.351975440405</v>
+        <v>1346.351975440407</v>
       </c>
       <c r="X10" t="n">
-        <v>1118.362424542387</v>
+        <v>1118.36242454239</v>
       </c>
       <c r="Y10" t="n">
-        <v>897.5698453988572</v>
+        <v>897.5698453988599</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,28 +5053,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,13 +5114,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
         <v>577.3880777468471</v>
@@ -5129,7 +5129,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
         <v>2001.151557821488</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783593</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640063</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5272,22 +5272,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355936</v>
@@ -5296,7 +5296,7 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5305,7 +5305,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5351,13 +5351,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
         <v>577.3880777468471</v>
@@ -5366,10 +5366,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589157</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143764</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>705.9324428257312</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2389.141387573227</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>2169.539922596168</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1880.464695940366</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1625.780207734479</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1336.363037697518</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1108.373486799501</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>887.5809076559709</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5509,43 +5509,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793924</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348531</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>741.8431516380886</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>572.9069687101817</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611858</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>923.4916164683283</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5734,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5752,10 +5752,10 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
         <v>261.0127623330919</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5977,10 +5977,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5995,13 +5995,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327706</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6150,49 +6150,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038401</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797802</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910815</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570823</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279808</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853367</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580266</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580266</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580266</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603208</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947405</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741519</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704558</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806541</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>945.4026036630104</v>
       </c>
     </row>
     <row r="26">
@@ -6220,7 +6220,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
@@ -6229,7 +6229,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1089.57599612053</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>920.6398131926233</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>770.5231737802875</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>622.6100801978944</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>475.720132699984</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>308.5240334148639</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>166.812202257062</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2264.108249235165</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>2009.423761029278</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1720.006590992317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1492.0170400943</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1271.22446095077</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6454,16 +6454,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6490,16 +6490,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
         <v>3467.980956852888</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="32">
@@ -6691,19 +6691,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6925,64 +6925,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111706</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="36">
@@ -7004,16 +7004,16 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327643</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048574</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>296.7882229101285</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>149.8982754122182</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="38">
@@ -7156,16 +7156,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7177,7 +7177,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7356,19 +7356,19 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
         <v>1202.091371290588</v>
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7645,22 +7645,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7730,16 +7730,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069065</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8069,7 +8069,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>51.53815565544048</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>45.78351343583188</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446524</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8151,7 +8151,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>163.0416663658823</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,10 +8534,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>224.0384964438452</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>304.9014880782338</v>
       </c>
       <c r="P9" t="n">
-        <v>264.4747475094983</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348489</v>
+        <v>20.9861830434847</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>114.1584408891657</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>211.5151132204101</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S16" t="n">
-        <v>123.7828069546814</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>61.40075786968296</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>65.54986409393068</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24147,7 +24147,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>103.8640922513135</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I28" t="n">
-        <v>9.000252501566294</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>73.624177726021</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>69.70496293143179</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>817515.6470952157</v>
+        <v>817515.6470952156</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>817515.6470952156</v>
+        <v>817515.6470952159</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>817515.6470952157</v>
+        <v>817515.6470952156</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>817515.6470952156</v>
+        <v>817515.6470952157</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>817515.6470952157</v>
+        <v>817515.6470952156</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>817515.6470952157</v>
+        <v>817515.6470952156</v>
       </c>
     </row>
   </sheetData>
@@ -26316,16 +26316,16 @@
         <v>615781.3273982124</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="G2" t="n">
         <v>605359.9497675041</v>
@@ -26334,28 +26334,28 @@
         <v>605359.9497675041</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="J2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="K2" t="n">
         <v>605359.9497675046</v>
-      </c>
-      <c r="K2" t="n">
-        <v>605359.9497675041</v>
       </c>
       <c r="L2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580808</v>
+        <v>390680.0076580825</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606913</v>
+        <v>507909.2320606902</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,25 +26383,25 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911401</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101807</v>
+        <v>95270.23779101849</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954685</v>
+        <v>132717.9756954682</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>251227.3656190198</v>
       </c>
       <c r="D4" t="n">
-        <v>140465.2517501112</v>
+        <v>140465.2517501107</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="F4" t="n">
         <v>11167.03225179351</v>
@@ -26438,25 +26438,25 @@
         <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179362</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179357</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179362</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.0322517936</v>
       </c>
       <c r="N4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179347</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
         <v>11167.03225179351</v>
@@ -26475,7 +26475,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567911</v>
+        <v>92902.86757567924</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-378581.8220162667</v>
       </c>
       <c r="C6" t="n">
-        <v>301506.1585749263</v>
+        <v>301506.1585749261</v>
       </c>
       <c r="D6" t="n">
-        <v>-8266.799585658548</v>
+        <v>-8266.799585659755</v>
       </c>
       <c r="E6" t="n">
-        <v>-15186.22362324436</v>
+        <v>-14873.58229432216</v>
       </c>
       <c r="F6" t="n">
-        <v>492723.0084374469</v>
+        <v>493035.6497663677</v>
       </c>
       <c r="G6" t="n">
-        <v>492723.0084374466</v>
+        <v>493035.6497663677</v>
       </c>
       <c r="H6" t="n">
-        <v>492723.0084374464</v>
+        <v>493035.6497663677</v>
       </c>
       <c r="I6" t="n">
-        <v>492723.0084374465</v>
+        <v>493035.6497663682</v>
       </c>
       <c r="J6" t="n">
-        <v>423723.8540183328</v>
+        <v>424036.4953472537</v>
       </c>
       <c r="K6" t="n">
-        <v>492723.0084374465</v>
+        <v>493035.6497663681</v>
       </c>
       <c r="L6" t="n">
-        <v>397452.7706464284</v>
+        <v>397765.4119753492</v>
       </c>
       <c r="M6" t="n">
-        <v>360005.0327419784</v>
+        <v>360317.6740708996</v>
       </c>
       <c r="N6" t="n">
-        <v>492723.0084374464</v>
+        <v>493035.6497663676</v>
       </c>
       <c r="O6" t="n">
-        <v>492723.0084374465</v>
+        <v>493035.6497663679</v>
       </c>
       <c r="P6" t="n">
-        <v>492723.0084374467</v>
+        <v>493035.6497663677</v>
       </c>
     </row>
   </sheetData>
@@ -26706,19 +26706,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26743,7 +26743,7 @@
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627844</v>
+        <v>933.7024595627857</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,10 +26795,10 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856974</v>
+        <v>640.1406900856991</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933061</v>
+        <v>319.6474457933075</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788891</v>
+        <v>434.2730407788882</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841913</v>
+        <v>376.4268100841929</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139507</v>
+        <v>532.5675980139495</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,19 +27035,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841913</v>
+        <v>376.426810084193</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139506</v>
+        <v>532.567598013949</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841913</v>
+        <v>376.4268100841929</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139507</v>
+        <v>532.5675980139495</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>101.5590117695014</v>
       </c>
       <c r="D2" t="n">
-        <v>135.2380307610665</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707556</v>
+        <v>162.4853592126453</v>
       </c>
       <c r="F2" t="n">
         <v>143.1621657402053</v>
@@ -27469,7 +27469,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
@@ -27508,7 +27508,7 @@
         <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>118.8128467312647</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
@@ -27523,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>32.36668412915958</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27542,22 +27542,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>1.458579755264623</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>104.5005322752551</v>
       </c>
       <c r="J4" t="n">
         <v>15.07219909888209</v>
@@ -27596,13 +27596,13 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.06360943114899</v>
+        <v>57.21613438642676</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>131.4088074456429</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>228.7684401524633</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425464991</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348405</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896856</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27988,7 +27988,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.776449164523711</v>
+        <v>1.776449164516947</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>96.91160063723612</v>
+        <v>96.91160063723356</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430994</v>
+        <v>104.8162497430993</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640952</v>
+        <v>101.5869591640951</v>
       </c>
       <c r="S10" t="n">
         <v>194.6738502503844</v>
@@ -29040,22 +29040,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,13 +29088,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29222,7 +29222,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>5.809605180071106e-12</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29286,10 +29286,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29325,13 +29325,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29565,16 +29565,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.622918810833904e-12</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29763,10 +29763,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1.54335762560769e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30000,10 +30000,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30042,13 +30042,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-9.094947017729281e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885562</v>
+        <v>3.753577726885568</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546678</v>
+        <v>38.44132789546683</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157558</v>
+        <v>144.709805315756</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972538</v>
+        <v>318.5802175972543</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763198</v>
+        <v>477.4691627763204</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354939</v>
+        <v>592.3427171354948</v>
       </c>
       <c r="M8" t="n">
-        <v>659.095405035995</v>
+        <v>659.095405035996</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525087</v>
+        <v>669.7602577525097</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307903</v>
+        <v>632.4356192307912</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983029</v>
+        <v>539.7691690983037</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542136</v>
+        <v>405.3441667542141</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864754</v>
+        <v>235.7856768864758</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140484</v>
+        <v>85.53465245140497</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944156</v>
+        <v>16.43128649944158</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508449</v>
+        <v>0.3002862181508454</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436932</v>
+        <v>2.008341139436935</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035143</v>
+        <v>19.39634732035146</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026282</v>
+        <v>69.14683309026292</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079429</v>
+        <v>189.7441951079431</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502173</v>
+        <v>324.3030514502178</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571287</v>
+        <v>436.0654741571294</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617174</v>
+        <v>508.8678404617182</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152222</v>
+        <v>522.336058015223</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519091</v>
+        <v>477.8354464519098</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947595</v>
+        <v>383.5050724947601</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463706</v>
+        <v>256.362984746371</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204791</v>
+        <v>124.6933209204793</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366405</v>
+        <v>37.30405581366411</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133949</v>
+        <v>8.095024154133961</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419035</v>
+        <v>0.1321277065419037</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752562</v>
+        <v>1.683725746752564</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840006</v>
+        <v>14.96985254840008</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415887</v>
+        <v>50.63422518415895</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954061</v>
+        <v>119.0394102954063</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772522</v>
+        <v>195.6183185772524</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490127</v>
+        <v>250.3240987490131</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023129</v>
+        <v>263.9316641023133</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462354</v>
+        <v>257.6559590462358</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046258</v>
+        <v>237.9869810046262</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708734</v>
+        <v>203.6389757708737</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939804</v>
+        <v>140.9890713939807</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307427</v>
+        <v>75.70643221307436</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658782</v>
+        <v>29.34274778658786</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942762</v>
+        <v>7.194100917942773</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650348</v>
+        <v>0.09183958618650362</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200311</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565771</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558023</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34152,7 +34152,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34450,7 +34450,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>75.43840481763047</v>
@@ -34789,7 +34789,7 @@
         <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="O3" t="n">
         <v>171.6550983098281</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>74.40039143232826</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966405</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
@@ -34871,7 +34871,7 @@
         <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958077</v>
+        <v>181.0986910958076</v>
       </c>
       <c r="P4" t="n">
         <v>131.2029511204531</v>
@@ -35032,10 +35032,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250133</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705675</v>
+        <v>137.534313070568</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313392</v>
+        <v>257.3793117313399</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655067</v>
+        <v>356.5763021655076</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087223</v>
+        <v>428.7491718087233</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559177</v>
+        <v>440.3471941559188</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091035</v>
+        <v>402.3374078091044</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430333</v>
+        <v>308.5361733430341</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797641</v>
+        <v>183.0384768797647</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234329</v>
+        <v>20.20013907234366</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127616</v>
+        <v>62.90656844127642</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884369</v>
+        <v>186.4616124758588</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772546</v>
+        <v>521.5495908211004</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396991</v>
+        <v>366.7338065396999</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318889</v>
+        <v>390.9943459318897</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074647</v>
+        <v>640.1406900856991</v>
       </c>
       <c r="P9" t="n">
-        <v>514.0054125899276</v>
+        <v>249.5306650804299</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.381210660349</v>
+        <v>116.3812106603494</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873334</v>
+        <v>25.68023017873351</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513693</v>
+        <v>173.3488267513696</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093289</v>
+        <v>277.9141240093293</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641535</v>
+        <v>303.5155410641539</v>
       </c>
       <c r="N10" t="n">
-        <v>301.788131425464</v>
+        <v>301.7881314254644</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186655</v>
+        <v>262.5721089186659</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357669</v>
+        <v>200.9175350357672</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228604</v>
+        <v>54.82702814228627</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366978</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121327</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113578</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36518,7 +36518,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096408</v>
       </c>
       <c r="L25" t="n">
         <v>394.3420143191314</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -38098,7 +38098,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
